--- a/medicine/Enfance/Bund_Deutscher_Mädel/Bund_Deutscher_Mädel.xlsx
+++ b/medicine/Enfance/Bund_Deutscher_Mädel/Bund_Deutscher_Mädel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bund_Deutscher_M%C3%A4del</t>
+          <t>Bund_Deutscher_Mädel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Bund Deutscher Mädel ou BDM en français : « la Ligue des jeunes filles allemandes » est le mouvement allemand pour les jeunes filles de 10 à 18 ans à l'époque du Troisième Reich, le seul autorisé après l'arrivée au pouvoir des nazis en 1933. Parmi ces jeunes filles, les plus jeunes — âgées de 10 à 14 ans — sont orientées vers le Jungmädelbund, organisation rattachée à la BDM.
 La BDM est en fait la branche féminine des Jeunesses hitlériennes. Toutes les autres organisations y sont incorporées ou interdites par le régime ; par la loi du 1er décembre 1936, l'appartenance au mouvement devient obligatoire.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bund_Deutscher_M%C3%A4del</t>
+          <t>Bund_Deutscher_Mädel</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Activités</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'encadrement de la BDM organisait des feux de camp, des camps d'été, des randonnées dans la nature et utilisait le folklore pour imposer les principes nazis concernant le statut des jeunes filles et des femmes dans la famille et la société.
 La BDM Werk Glaube und Schönheit était une organisation parallèle chargée de permettre aux jeunes filles de 17 à 21 ans, qui le souhaitaient, de se préparer au NS-Frauenschaft, l'organisation féminine pour les adultes.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bund_Deutscher_M%C3%A4del</t>
+          <t>Bund_Deutscher_Mädel</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,6 +560,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -553,7 +569,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bund_Deutscher_M%C3%A4del</t>
+          <t>Bund_Deutscher_Mädel</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -571,7 +587,9 @@
           <t>Exemples de fanions de la Bund Deutscher Mädel (BDM)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			BDM-Untergau.
